--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C8193-2C9C-471F-99F3-DE22701C2784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8BDE7-0FC9-44E5-8FD1-795CA55E03C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="20184" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="resources" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -90,13 +91,98 @@
     <t>username=WNCD000
 password=
 verifycode=0000</t>
+  </si>
+  <si>
+    <t>training_resources_cases</t>
+  </si>
+  <si>
+    <t>do_add_resources_test</t>
+  </si>
+  <si>
+    <t>add-success</t>
+  </si>
+  <si>
+    <t>add_001</t>
+  </si>
+  <si>
+    <t>add_002</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>query-success</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>do_query_resources_test</t>
+  </si>
+  <si>
+    <t>cus.tel=19877101276
+cus.name=莫甘娜
+cus.sex=女
+cus.last_status=新入库
+cus.wechat=987678908765
+cus.qq=2827182736
+cus.school=兰州大学
+cus.education=本科
+cus.major=计算机
+cus.intent=测试工程师
+cus.workage=2年
+cus.salary=20000
+cus.source=百度竞价
+cus.email=282827338@qq.com
+cus.age=2年
+cus.eduexp=2020-2021 兰州大学学习
+cus.experience=
+cus.last_tracking_remark=</t>
+  </si>
+  <si>
+    <t>cus.tel=19877101376
+cus.name=剑姬
+cus.sex=女
+cus.last_status=新入库
+cus.wechat=987678908765
+cus.qq=2827182736
+cus.school=兰州大学
+cus.education=本科
+cus.major=计算机
+cus.intent=测试工程师
+cus.workage=2年
+cus.salary=20000
+cus.source=百度竞价
+cus.email=282827338@qq.com
+cus.age=2年
+cus.eduexp=2020-2021 兰州大学学习
+cus.experience=
+cus.last_tracking_remark=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource= 临时池
+status= 新入库
+source= 全部
+start_time= 2019-09-10
+end_time= 2020-05-12
+query_name= 
+consultant= 全部    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource= 临时池
+status= 新入库
+source= 全部
+start_time= 2019-09-10
+end_time= 2020-05-12
+query_name= 19878768911
+consultant= 李娇 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +206,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,12 +232,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -637,4 +746,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="39.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8BDE7-0FC9-44E5-8FD1-795CA55E03C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22F203-2A9D-4353-89C0-606FDAC0C323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,8 +120,26 @@
     <t>do_query_resources_test</t>
   </si>
   <si>
-    <t>cus.tel=19877101276
-cus.name=莫甘娜
+    <t xml:space="preserve">resource= 临时池
+status= 新入库
+source= 全部
+start_time= 2019-09-10
+end_time= 2020-05-12
+query_name= 
+consultant= 全部    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource= 临时池
+status= 新入库
+source= 全部
+start_time= 2019-09-10
+end_time= 2020-05-12
+query_name= 19878768911
+consultant= 李娇 </t>
+  </si>
+  <si>
+    <t>cus.tel=19877101376
+cus.name=剑姬1
 cus.sex=女
 cus.last_status=新入库
 cus.wechat=987678908765
@@ -140,8 +158,8 @@
 cus.last_tracking_remark=</t>
   </si>
   <si>
-    <t>cus.tel=19877101376
-cus.name=剑姬
+    <t>cus.tel=19877101545
+cus.name=莫甘娜1
 cus.sex=女
 cus.last_status=新入库
 cus.wechat=987678908765
@@ -158,24 +176,6 @@
 cus.eduexp=2020-2021 兰州大学学习
 cus.experience=
 cus.last_tracking_remark=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource= 临时池
-status= 新入库
-source= 全部
-start_time= 2019-09-10
-end_time= 2020-05-12
-query_name= 
-consultant= 全部    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource= 临时池
-status= 新入库
-source= 全部
-start_time= 2019-09-10
-end_time= 2020-05-12
-query_name= 19878768911
-consultant= 李娇 </t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>22</v>
@@ -840,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>26</v>
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>26</v>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22F203-2A9D-4353-89C0-606FDAC0C323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A55CD0-B70F-488B-9904-3FD2F8C3A408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,8 +138,8 @@
 consultant= 李娇 </t>
   </si>
   <si>
-    <t>cus.tel=19877101376
-cus.name=剑姬1
+    <t>cus.tel=19877111545
+cus.name=莫甘娜3
 cus.sex=女
 cus.last_status=新入库
 cus.wechat=987678908765
@@ -158,8 +158,8 @@
 cus.last_tracking_remark=</t>
   </si>
   <si>
-    <t>cus.tel=19877101545
-cus.name=莫甘娜1
+    <t>cus.tel=19877111376
+cus.name=剑姬3
 cus.sex=女
 cus.last_status=新入库
 cus.wechat=987678908765
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>22</v>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A55CD0-B70F-488B-9904-3FD2F8C3A408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B940ED-5561-4136-9FD9-3425C26F0AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,24 +118,6 @@
   </si>
   <si>
     <t>do_query_resources_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource= 临时池
-status= 新入库
-source= 全部
-start_time= 2019-09-10
-end_time= 2020-05-12
-query_name= 
-consultant= 全部    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource= 临时池
-status= 新入库
-source= 全部
-start_time= 2019-09-10
-end_time= 2020-05-12
-query_name= 19878768911
-consultant= 李娇 </t>
   </si>
   <si>
     <t>cus.tel=19877111545
@@ -176,6 +158,24 @@
 cus.eduexp=2020-2021 兰州大学学习
 cus.experience=
 cus.last_tracking_remark=</t>
+  </si>
+  <si>
+    <t>resource=临时池
+status=新入库
+source=全部
+start_time=
+end_time=
+query_name=
+consultant=全部</t>
+  </si>
+  <si>
+    <t>resource=全部
+status=全部
+source=全部
+start_time=
+end_time=
+query_name=三生三世
+consultant=全部</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>22</v>
@@ -840,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>26</v>
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>26</v>
@@ -877,5 +877,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B940ED-5561-4136-9FD9-3425C26F0AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B99957-09AF-4C1C-9C35-F38893D98BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,18 @@
 end_time=
 query_name=三生三世
 consultant=全部</t>
+  </si>
+  <si>
+    <t>discard_1</t>
+  </si>
+  <si>
+    <t>do_discard_resources_test</t>
+  </si>
+  <si>
+    <t>end=end</t>
+  </si>
+  <si>
+    <t>discard-success</t>
   </si>
 </sst>
 </file>
@@ -752,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -867,12 +879,24 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B99957-09AF-4C1C-9C35-F38893D98BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C809A52-C28C-4B92-88B2-F26176BFC7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,7 +765,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C809A52-C28C-4B92-88B2-F26176BFC7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB48877-B0EF-4D0A-A76D-18EA9F725718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -188,6 +188,39 @@
   </si>
   <si>
     <t>discard-success</t>
+  </si>
+  <si>
+    <t>track_1</t>
+  </si>
+  <si>
+    <t>do_track_resources_test</t>
+  </si>
+  <si>
+    <t>new_status=已报名
+priority=高
+next_time=2020-05-17
+track_keys=已报名,交定金800
+class=WNCD003
+payment_way=微信
+fee=18800
+account=学员缴费账户
+amount=800
+trade_time=2020-08-15</t>
+  </si>
+  <si>
+    <t>track_2</t>
+  </si>
+  <si>
+    <t>new_status=新认领
+priority=高
+next_time=2020-05-18
+track_keys=已进行联系,报名倾向很高
+class=
+payment_way=
+fee=
+account=
+amount=
+trade_time=</t>
   </si>
 </sst>
 </file>
@@ -762,17 +795,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.296875" customWidth="1"/>
     <col min="2" max="2" width="24.69921875" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="39.8984375" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="39.3984375" customWidth="1"/>
@@ -898,6 +931,43 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB48877-B0EF-4D0A-A76D-18EA9F725718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0698FAE-58F1-4475-885B-825B2644C679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -221,6 +221,9 @@
 account=
 amount=
 trade_time=</t>
+  </si>
+  <si>
+    <t>track-success</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -947,6 +950,9 @@
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -963,6 +969,9 @@
       </c>
       <c r="E8" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0698FAE-58F1-4475-885B-825B2644C679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAD848-C8B8-43DE-98B0-8E8C270C0BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,18 +196,6 @@
     <t>do_track_resources_test</t>
   </si>
   <si>
-    <t>new_status=已报名
-priority=高
-next_time=2020-05-17
-track_keys=已报名,交定金800
-class=WNCD003
-payment_way=微信
-fee=18800
-account=学员缴费账户
-amount=800
-trade_time=2020-08-15</t>
-  </si>
-  <si>
     <t>track_2</t>
   </si>
   <si>
@@ -224,6 +212,18 @@
   </si>
   <si>
     <t>track-success</t>
+  </si>
+  <si>
+    <t>new_status=已报名
+priority=高
+next_time=2020-05-17
+track_keys=已报名,交定金800
+class=WNCDC003
+payment_way=微信
+fee=18800
+account=学员缴费账户
+amount=800
+trade_time=2020-08-15</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -948,15 +948,15 @@
         <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -968,10 +968,10 @@
         <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAD848-C8B8-43DE-98B0-8E8C270C0BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8EDF75-535B-4EBF-9C71-916FA010668A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -224,6 +224,30 @@
 account=学员缴费账户
 amount=800
 trade_time=2020-08-15</t>
+  </si>
+  <si>
+    <t>edit_1</t>
+  </si>
+  <si>
+    <t>edit_2</t>
+  </si>
+  <si>
+    <t>edit_name=莫甘娜
+edit_status=已上门
+edit_tel=198765654564
+edit_source=专属简历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>edit_name=亚索
+edit_status=新认领
+edit_tel=198765654568
+edit_source=双选会</t>
+  </si>
+  <si>
+    <t>edit-success</t>
   </si>
 </sst>
 </file>
@@ -800,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,6 +998,51 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAD848-C8B8-43DE-98B0-8E8C270C0BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9828196D-BDE5-46C6-996C-BBB7F2CFC5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8EDF75-535B-4EBF-9C71-916FA010668A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572632E0-CC17-4DE8-BE02-F9BABFA28D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,22 +232,22 @@
     <t>edit_2</t>
   </si>
   <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>edit-success</t>
+  </si>
+  <si>
     <t>edit_name=莫甘娜
 edit_status=已上门
-edit_tel=198765654564
+edit_tel=19876565456
 edit_source=专属简历</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
   </si>
   <si>
     <t>edit_name=亚索
 edit_status=新认领
-edit_tel=198765654568
+edit_tel=19876565568
 edit_source=双选会</t>
-  </si>
-  <si>
-    <t>edit-success</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1012,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
@@ -1032,15 +1032,15 @@
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572632E0-CC17-4DE8-BE02-F9BABFA28D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239FD0BE-0707-4B07-B34D-0A09AD40525E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -232,9 +232,6 @@
     <t>edit_2</t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
     <t>edit-success</t>
   </si>
   <si>
@@ -248,6 +245,45 @@
 edit_status=新认领
 edit_tel=19876565568
 edit_source=双选会</t>
+  </si>
+  <si>
+    <t>public_1</t>
+  </si>
+  <si>
+    <t>area_value=成都
+dpt_value=咨询部
+abandoned_value=郑雪娇
+status_value=新入库
+source_value=智联招聘
+education_value=其他学历
+name_value=里哈哈哈</t>
+  </si>
+  <si>
+    <t>public_2</t>
+  </si>
+  <si>
+    <t>area_value=成都
+dpt_value=咨询部
+abandoned_value=全部
+status_value=全部
+source_value=全部
+education_value=全部
+name_value=</t>
+  </si>
+  <si>
+    <t>a=1</t>
+  </si>
+  <si>
+    <t>public_3</t>
+  </si>
+  <si>
+    <t>public_4</t>
+  </si>
+  <si>
+    <t>a=2</t>
+  </si>
+  <si>
+    <t>claim-success</t>
   </si>
 </sst>
 </file>
@@ -822,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1048,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
@@ -1032,19 +1068,94 @@
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
-        <v>45</v>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239FD0BE-0707-4B07-B34D-0A09AD40525E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707B234-414E-45F3-B6FF-A9B82FD6E39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1164" yWindow="564" windowWidth="20376" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -250,15 +250,6 @@
     <t>public_1</t>
   </si>
   <si>
-    <t>area_value=成都
-dpt_value=咨询部
-abandoned_value=郑雪娇
-status_value=新入库
-source_value=智联招聘
-education_value=其他学历
-name_value=里哈哈哈</t>
-  </si>
-  <si>
     <t>public_2</t>
   </si>
   <si>
@@ -284,6 +275,15 @@
   </si>
   <si>
     <t>claim-success</t>
+  </si>
+  <si>
+    <t>area_value=全部
+dpt_value=全部
+abandoned_value=郑雪娇
+status_value=新认领
+source_value=自然流量
+education_value=全部
+name_value=剑姬</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="12" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
@@ -1108,7 +1108,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
@@ -1128,15 +1128,15 @@
         <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>20</v>
@@ -1148,10 +1148,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707B234-414E-45F3-B6FF-A9B82FD6E39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB615F0-2F3B-4DA1-BC09-C2D679E2D6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="564" windowWidth="20376" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,37 @@
 source_value=自然流量
 education_value=全部
 name_value=剑姬</t>
+  </si>
+  <si>
+    <t>transmit_1</t>
+  </si>
+  <si>
+    <t>transmit_2</t>
+  </si>
+  <si>
+    <t>transmit-success</t>
+  </si>
+  <si>
+    <t>area_text_value=成都
+dpt_text_value=咨询部
+empname_xpath_value=全部
+status_text_value=全部
+source_text_value=全部
+name_text_value=
+transmit_area_value=成都
+transmit_dpt_value=咨询部
+transmit_empname_value=郑雪娇</t>
+  </si>
+  <si>
+    <t>area_text_value=成都
+dpt_text_value=咨询部
+empname_xpath_value=郑雪娇
+status_text_value=全部
+source_text_value=全部
+name_text_value=
+transmit_area_value=成都
+transmit_dpt_value=咨询部
+transmit_empname_value=李娇</t>
   </si>
 </sst>
 </file>
@@ -858,19 +889,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.296875" customWidth="1"/>
     <col min="2" max="2" width="24.69921875" customWidth="1"/>
-    <col min="3" max="3" width="39.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" customWidth="1"/>
+    <col min="5" max="5" width="61.296875" customWidth="1"/>
     <col min="6" max="6" width="39.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -974,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
@@ -1134,7 +1165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -1154,8 +1185,51 @@
         <v>55</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB615F0-2F3B-4DA1-BC09-C2D679E2D6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8E06B-BD30-4584-A492-4F180DB873AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,17 +297,6 @@
   <si>
     <t>area_text_value=成都
 dpt_text_value=咨询部
-empname_xpath_value=全部
-status_text_value=全部
-source_text_value=全部
-name_text_value=
-transmit_area_value=成都
-transmit_dpt_value=咨询部
-transmit_empname_value=郑雪娇</t>
-  </si>
-  <si>
-    <t>area_text_value=成都
-dpt_text_value=咨询部
 empname_xpath_value=郑雪娇
 status_text_value=全部
 source_text_value=全部
@@ -315,6 +304,17 @@
 transmit_area_value=成都
 transmit_dpt_value=咨询部
 transmit_empname_value=李娇</t>
+  </si>
+  <si>
+    <t>area_text_value=成都
+dpt_text_value=咨询部
+empname_xpath_value=李娇
+status_text_value=全部
+source_text_value=全部
+name_text_value=
+transmit_area_value=成都
+transmit_dpt_value=咨询部
+transmit_empname_value=郑雪娇</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1199,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>59</v>
@@ -1219,7 +1219,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>59</v>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8E06B-BD30-4584-A492-4F180DB873AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA09252-C4C3-4487-B422-D160C1498344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1656" yWindow="1056" windowWidth="20376" windowHeight="10776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -277,15 +277,6 @@
     <t>claim-success</t>
   </si>
   <si>
-    <t>area_value=全部
-dpt_value=全部
-abandoned_value=郑雪娇
-status_value=新认领
-source_value=自然流量
-education_value=全部
-name_value=剑姬</t>
-  </si>
-  <si>
     <t>transmit_1</t>
   </si>
   <si>
@@ -315,6 +306,15 @@
 transmit_area_value=成都
 transmit_dpt_value=咨询部
 transmit_empname_value=郑雪娇</t>
+  </si>
+  <si>
+    <t>area_value=全部
+dpt_value=全部
+abandoned_value=郑雪娇
+status_value=新认领
+source_value=自然流量
+education_value=全部
+name_value=</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="15" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
@@ -1199,15 +1199,15 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
@@ -1219,10 +1219,10 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA09252-C4C3-4487-B422-D160C1498344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AD174-5F1D-46C1-969D-A8300B6A652B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="1056" windowWidth="20376" windowHeight="10776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AD174-5F1D-46C1-969D-A8300B6A652B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5E284-4D7C-4316-A572-D58BF94778C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
 dpt_value=全部
 abandoned_value=郑雪娇
 status_value=新认领
-source_value=自然流量
+source_value=全部
 education_value=全部
 name_value=</t>
   </si>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/woniuboss4.0_case_yang.xlsx
+++ b/data/woniuboss4.0_case_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5E284-4D7C-4316-A572-D58BF94778C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58797BA-10B6-4E73-9B33-40F345346CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,155 @@
     <t>do_query_resources_test</t>
   </si>
   <si>
-    <t>cus.tel=19877111545
+    <t>resource=临时池
+status=新入库
+source=全部
+start_time=
+end_time=
+query_name=
+consultant=全部</t>
+  </si>
+  <si>
+    <t>discard_1</t>
+  </si>
+  <si>
+    <t>do_discard_resources_test</t>
+  </si>
+  <si>
+    <t>end=end</t>
+  </si>
+  <si>
+    <t>discard-success</t>
+  </si>
+  <si>
+    <t>track_1</t>
+  </si>
+  <si>
+    <t>do_track_resources_test</t>
+  </si>
+  <si>
+    <t>track_2</t>
+  </si>
+  <si>
+    <t>new_status=新认领
+priority=高
+next_time=2020-05-18
+track_keys=已进行联系,报名倾向很高
+class=
+payment_way=
+fee=
+account=
+amount=
+trade_time=</t>
+  </si>
+  <si>
+    <t>track-success</t>
+  </si>
+  <si>
+    <t>new_status=已报名
+priority=高
+next_time=2020-05-17
+track_keys=已报名,交定金800
+class=WNCDC003
+payment_way=微信
+fee=18800
+account=学员缴费账户
+amount=800
+trade_time=2020-08-15</t>
+  </si>
+  <si>
+    <t>edit_1</t>
+  </si>
+  <si>
+    <t>edit_2</t>
+  </si>
+  <si>
+    <t>edit-success</t>
+  </si>
+  <si>
+    <t>edit_name=莫甘娜
+edit_status=已上门
+edit_tel=19876565456
+edit_source=专属简历</t>
+  </si>
+  <si>
+    <t>edit_name=亚索
+edit_status=新认领
+edit_tel=19876565568
+edit_source=双选会</t>
+  </si>
+  <si>
+    <t>public_1</t>
+  </si>
+  <si>
+    <t>public_2</t>
+  </si>
+  <si>
+    <t>area_value=成都
+dpt_value=咨询部
+abandoned_value=全部
+status_value=全部
+source_value=全部
+education_value=全部
+name_value=</t>
+  </si>
+  <si>
+    <t>a=1</t>
+  </si>
+  <si>
+    <t>public_3</t>
+  </si>
+  <si>
+    <t>public_4</t>
+  </si>
+  <si>
+    <t>a=2</t>
+  </si>
+  <si>
+    <t>claim-success</t>
+  </si>
+  <si>
+    <t>transmit_1</t>
+  </si>
+  <si>
+    <t>transmit_2</t>
+  </si>
+  <si>
+    <t>transmit-success</t>
+  </si>
+  <si>
+    <t>area_text_value=成都
+dpt_text_value=咨询部
+empname_xpath_value=郑雪娇
+status_text_value=全部
+source_text_value=全部
+name_text_value=
+transmit_area_value=成都
+transmit_dpt_value=咨询部
+transmit_empname_value=李娇</t>
+  </si>
+  <si>
+    <t>area_text_value=成都
+dpt_text_value=咨询部
+empname_xpath_value=李娇
+status_text_value=全部
+source_text_value=全部
+name_text_value=
+transmit_area_value=成都
+transmit_dpt_value=咨询部
+transmit_empname_value=郑雪娇</t>
+  </si>
+  <si>
+    <t>area_value=全部
+dpt_value=全部
+abandoned_value=郑雪娇
+status_value=新认领
+source_value=全部
+education_value=全部
+name_value=</t>
+  </si>
+  <si>
+    <t>cus.tel=19771811545
 cus.name=莫甘娜3
 cus.sex=女
 cus.last_status=新入库
@@ -140,7 +288,7 @@
 cus.last_tracking_remark=</t>
   </si>
   <si>
-    <t>cus.tel=19877111376
+    <t>cus.tel=19857111376
 cus.name=剑姬3
 cus.sex=女
 cus.last_status=新入库
@@ -160,161 +308,13 @@
 cus.last_tracking_remark=</t>
   </si>
   <si>
-    <t>resource=临时池
-status=新入库
+    <t>resource=全部
+status=全部
 source=全部
 start_time=
 end_time=
 query_name=
 consultant=全部</t>
-  </si>
-  <si>
-    <t>resource=全部
-status=全部
-source=全部
-start_time=
-end_time=
-query_name=三生三世
-consultant=全部</t>
-  </si>
-  <si>
-    <t>discard_1</t>
-  </si>
-  <si>
-    <t>do_discard_resources_test</t>
-  </si>
-  <si>
-    <t>end=end</t>
-  </si>
-  <si>
-    <t>discard-success</t>
-  </si>
-  <si>
-    <t>track_1</t>
-  </si>
-  <si>
-    <t>do_track_resources_test</t>
-  </si>
-  <si>
-    <t>track_2</t>
-  </si>
-  <si>
-    <t>new_status=新认领
-priority=高
-next_time=2020-05-18
-track_keys=已进行联系,报名倾向很高
-class=
-payment_way=
-fee=
-account=
-amount=
-trade_time=</t>
-  </si>
-  <si>
-    <t>track-success</t>
-  </si>
-  <si>
-    <t>new_status=已报名
-priority=高
-next_time=2020-05-17
-track_keys=已报名,交定金800
-class=WNCDC003
-payment_way=微信
-fee=18800
-account=学员缴费账户
-amount=800
-trade_time=2020-08-15</t>
-  </si>
-  <si>
-    <t>edit_1</t>
-  </si>
-  <si>
-    <t>edit_2</t>
-  </si>
-  <si>
-    <t>edit-success</t>
-  </si>
-  <si>
-    <t>edit_name=莫甘娜
-edit_status=已上门
-edit_tel=19876565456
-edit_source=专属简历</t>
-  </si>
-  <si>
-    <t>edit_name=亚索
-edit_status=新认领
-edit_tel=19876565568
-edit_source=双选会</t>
-  </si>
-  <si>
-    <t>public_1</t>
-  </si>
-  <si>
-    <t>public_2</t>
-  </si>
-  <si>
-    <t>area_value=成都
-dpt_value=咨询部
-abandoned_value=全部
-status_value=全部
-source_value=全部
-education_value=全部
-name_value=</t>
-  </si>
-  <si>
-    <t>a=1</t>
-  </si>
-  <si>
-    <t>public_3</t>
-  </si>
-  <si>
-    <t>public_4</t>
-  </si>
-  <si>
-    <t>a=2</t>
-  </si>
-  <si>
-    <t>claim-success</t>
-  </si>
-  <si>
-    <t>transmit_1</t>
-  </si>
-  <si>
-    <t>transmit_2</t>
-  </si>
-  <si>
-    <t>transmit-success</t>
-  </si>
-  <si>
-    <t>area_text_value=成都
-dpt_text_value=咨询部
-empname_xpath_value=郑雪娇
-status_text_value=全部
-source_text_value=全部
-name_text_value=
-transmit_area_value=成都
-transmit_dpt_value=咨询部
-transmit_empname_value=李娇</t>
-  </si>
-  <si>
-    <t>area_text_value=成都
-dpt_text_value=咨询部
-empname_xpath_value=李娇
-status_text_value=全部
-source_text_value=全部
-name_text_value=
-transmit_area_value=成都
-transmit_dpt_value=咨询部
-transmit_empname_value=郑雪娇</t>
-  </si>
-  <si>
-    <t>area_value=全部
-dpt_value=全部
-abandoned_value=郑雪娇
-status_value=新认领
-source_value=全部
-education_value=全部
-name_value=</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A195B3-97D3-4E66-8692-64AC916CE045}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -959,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>22</v>
@@ -979,7 +979,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>26</v>
@@ -999,7 +999,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>26</v>
@@ -1007,27 +1007,27 @@
     </row>
     <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1036,18 +1036,18 @@
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -1056,58 +1056,58 @@
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -1116,10 +1116,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="12" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
@@ -1136,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -1147,27 +1147,27 @@
     </row>
     <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>20</v>
@@ -1176,53 +1176,53 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
